--- a/ai_court_cases_summary.xlsx
+++ b/ai_court_cases_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menahassan/Documents/GitHub/CourtListenerDataCleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CAB083-84B4-2A4F-A0DA-1392CA38C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A903D8-B86E-044E-BEF8-1414D4DA24F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases Over Time" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Court Locations Total" sheetId="3" r:id="rId3"/>
     <sheet name="Nature of Suit 2023" sheetId="4" r:id="rId4"/>
     <sheet name="Nature of Suit Total" sheetId="5" r:id="rId5"/>
+    <sheet name="Ongoing vs Finished" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="294">
   <si>
     <t>year</t>
   </si>
@@ -894,6 +895,18 @@
   </si>
   <si>
     <t>510 Prisoner: Vacate Sentence</t>
+  </si>
+  <si>
+    <t>case_status</t>
+  </si>
+  <si>
+    <t>Case Status Counts</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -1259,11 +1272,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1362,13 +1378,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2036,11 +2051,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3044,13 +3062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.1640625" customWidth="1"/>
+    <col min="1" max="1" width="115" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3570,7 +3586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.1640625" customWidth="1"/>
+    <col min="1" max="1" width="72.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4873,4 +4889,47 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>